--- a/Question_Set2/Software skills/NGINX.xlsx
+++ b/Question_Set2/Software skills/NGINX.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are installing an NGINX server on an updated Debian-based operating system. You executed a proper package installation command, but the system returned: “Could not open lock file /var/lib/apt/lists/lock - open (13: Permission denied)” Which of the following commands should you execute to avoid an error like the one mentioned above?', 'ques_type': 2, 'options': ['sudo apt install -y nginx', 'rm -rf /var/lib/apt/lists/lock', 'sudo yum install -y nginx', 'sudo rpm -ivh nginx'], 'score': 'sudo apt install -y nginx'}, {'title': 'You are a web server administrator and have performed some optimization tasks on an NGINX server. After completing some administrative activities, you want to verify whether NGINX is functioning correctly by showing a screen similar to the one below. Which of the following commands should you run?', 'ques_type': 2, 'options': ['sudo systemctl status nginx', 'sudo pstree nginx', 'sudo top | grep -i nginx', 'sudo systemctl nginx status'], 'score': 'sudo systemctl status nginx'}, {'title': 'You are a web server administrator and manage multiple websites for your organization. All the site and virtual host configurations are stored in the directory /etc/mysites/. You must enable the NGINX server to locate the site configuration files automatically.Which of the following steps should you perform to enable the NGINX server to automatically locate and load the configuration files?', 'ques_type': 2, 'options': ['sudo nano /etc/nginx/nginx.conf And add a directive:include /etc/mysites/*.conf', 'sudo nano /etc/nginx/httpd.confAnd add a directive:append /etc/mysites/*.conf', 'sudo nano /etc/nginx/nginx.confAnd add a directive:Include_conf /etc/mysites/*.conf', 'sudo nano /etc/nginx/conf.d/nginx.confAnd add a directive:include /etc/mysites/*.conf'], 'score': 'sudo nano /etc/nginx/nginx.conf And add a directive:include /etc/mysites/*.conf'}, {'title': 'You are a Linux server administrator and have installed an NGINX server with all of its default settings and file locations. You are working at the command prompt of the machine on which the NGINX server is running. You must display a log of your system to see who is accessing your server in real time.True or false: Executing sudo tail -f /var/log/nginx/access.log will allow you to see real-time access to your NGINX server.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You are installing an NGINX server on an updated Debian-based operating system. You executed a proper package installation command, but the system returned: \u201cCould not open lock file /var/lib/apt/lists/lock - open (13: Permission denied)\u201d Which of the following commands should you execute to avoid an error like the one mentioned above?",
+        "ques_type": 2,
+        "options": [
+            "sudo apt install -y nginx",
+            "rm -rf /var/lib/apt/lists/lock",
+            "sudo yum install -y nginx",
+            "sudo rpm -ivh nginx"
+        ],
+        "score": "sudo apt install -y nginx"
+    },
+    {
+        "title": "You are a web server administrator and have performed some optimization tasks on an NGINX server. After completing some administrative activities, you want to verify whether NGINX is functioning correctly by showing a screen similar to the one below. Which of the following commands should you run?",
+        "ques_type": 2,
+        "options": [
+            "sudo systemctl status nginx",
+            "sudo pstree nginx",
+            "sudo top | grep -i nginx",
+            "sudo systemctl nginx status"
+        ],
+        "score": "sudo systemctl status nginx"
+    },
+    {
+        "title": "You are a web server administrator and manage multiple websites for your organization. All the site and virtual host configurations are stored in the directory /etc/mysites/. You must enable the NGINX server to locate the site configuration files automatically.Which of the following steps should you perform to enable the NGINX server to automatically locate and load the configuration files?",
+        "ques_type": 2,
+        "options": [
+            "sudo nano /etc/nginx/nginx.conf And add a directive:include /etc/mysites/*.conf",
+            "sudo nano /etc/nginx/httpd.confAnd add a directive:append /etc/mysites/*.conf",
+            "sudo nano /etc/nginx/nginx.confAnd add a directive:Include_conf /etc/mysites/*.conf",
+            "sudo nano /etc/nginx/conf.d/nginx.confAnd add a directive:include /etc/mysites/*.conf"
+        ],
+        "score": "sudo nano /etc/nginx/nginx.conf And add a directive:include /etc/mysites/*.conf"
+    },
+    {
+        "title": "You are a Linux server administrator and have installed an NGINX server with all of its default settings and file locations. You are working at the command prompt of the machine on which the NGINX server is running. You must display a log of your system to see who is accessing your server in real time.True or false: Executing sudo tail -f /var/log/nginx/access.log will allow you to see real-time access to your NGINX server.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
